--- a/pred_ohlcv/54_21/2019-11-05 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-05 XLM ohlcv.xlsx
@@ -756,7 +756,7 @@
         <v>2009252.350674841</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -834,7 +834,7 @@
         <v>5859328.98737484</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>5859328.98737484</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>5859328.98737484</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>9713828.98737484</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>7263828.98737484</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>7265190.89267484</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>7263923.76057484</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>7256257.73127484</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>7256257.73127484</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>9706257.731274839</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>9705679.286374839</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>10757317.28627484</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>10757317.28627484</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>13557317.28627484</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>13557317.28627484</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>13554354.69267484</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>13622878.61637484</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>13622748.51687484</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>13622748.51687484</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>13624500.07347484</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>13611973.71347484</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>19203373.71347484</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>34763371.50611196</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>34641986.71291196</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>34980998.58131196</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>36225737.05011196</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>37063726.03241196</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>38008812.48191571</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>39118870.00913366</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>39871858.47823366</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>41257734.45353419</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>40380031.06268939</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>41017771.00807668</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>41436689.10360343</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>40587021.5064964</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>40971379.1500964</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>41432203.67192292</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>41920382.5902281</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>42535253.43902811</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>41962241.88324428</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>42175579.17571039</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>42175579.17571039</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>41919462.46329443</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>41725450.99229443</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>41550802.54735037</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>41865660.20115037</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>42095791.93415038</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>41911428.27145038</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>42134156.44265038</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>41923866.02525038</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>41639631.86675037</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>41862663.75995038</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>41518399.93505038</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>41518399.93505038</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>41003303.16125038</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>40818847.31875037</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>40611121.32650232</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>40225884.16300231</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>40272711.25130997</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>39954594.37636805</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>39854866.65493648</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>40401380.15983649</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>40515602.12141409</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>40684337.58353649</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>41191269.03743649</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>41658359.11441565</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>42890801.77071565</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>44412464.04257372</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>43761480.80415606</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>44346617.92444637</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>43866658.44354638</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>43457396.10714637</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>43813445.89584637</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>43615973.29257812</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>43482106.18997812</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>43673379.61047813</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>43442349.47201025</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>43283812.42341024</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>43212974.08521024</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>43140945.79591024</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>44747104.97148109</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>44988013.76792305</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>44631385.72251782</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>44977580.36780833</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>45091114.78320833</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>44871144.58970834</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>44944504.35342021</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>44944504.35342021</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>45131176.9218156</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>45302542.07661559</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>46329789.14611559</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>46329789.14611559</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>46272396.24508426</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>46054191.20679409</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>45932655.92539409</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>45957339.63278365</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>45876735.88088365</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>45829293.42118365</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>46066014.91768365</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>46339902.73018463</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>46339902.73018463</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>46339902.73018463</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>46339902.73018463</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>46586413.76482776</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>46197972.28662775</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>46197972.28662775</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>46159630.50032775</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>46290958.97212775</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>45965024.84032775</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>46095844.04672775</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>46007916.98622774</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>46007916.98622774</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>46104131.80072774</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>45827045.28442774</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>45410599.46972774</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>45378709.86275104</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>45559877.93275104</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>45650288.79995104</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>45518467.02165104</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>45383183.88445104</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>45067167.87375104</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>45299597.13375103</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>45299597.13375103</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>45103373.18925104</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>45180709.20355104</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>45624230.82925104</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>45622767.11115104</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>45622767.11115104</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>45553029.28835104</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>45349525.61988635</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>45513723.41740764</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>45502071.98940764</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-05 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-05 XLM ohlcv.xlsx
@@ -756,7 +756,7 @@
         <v>2009252.350674841</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -834,7 +834,7 @@
         <v>5859328.98737484</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>5859328.98737484</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>5859328.98737484</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>7265190.89267484</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>7263923.76057484</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>7256257.73127484</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>7256257.73127484</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>9706257.731274839</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>9705679.286374839</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>10757317.28627484</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>10757317.28627484</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>13557317.28627484</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>13554354.69267484</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>13622878.61637484</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>13622878.61637484</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>13622748.51687484</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>13622748.51687484</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>13624500.07347484</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>13611973.71347484</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>13601973.71347484</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>19203373.71347484</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>34763371.50611196</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>34641986.71291196</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>34980998.58131196</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>36225737.05011196</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>37063726.03241196</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>38008812.48191571</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>39118870.00913366</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>39871858.47823366</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>41257734.45353419</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>40380031.06268939</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>41017771.00807668</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>40587021.5064964</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>40971379.1500964</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>41920382.5902281</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>42535253.43902811</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>41962241.88324428</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>42175579.17571039</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>42175579.17571039</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>41919462.46329443</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>41725450.99229443</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>41550802.54735037</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>41865660.20115037</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>42095791.93415038</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>41911428.27145038</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>42134156.44265038</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>41923866.02525038</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>41639631.86675037</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>41862663.75995038</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>41518399.93505038</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>41518399.93505038</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>41003303.16125038</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>40818847.31875037</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>40611121.32650232</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>40225884.16300231</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>40272711.25130997</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>39954594.37636805</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>39854866.65493648</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>40401380.15983649</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>40515602.12141409</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>40684337.58353649</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>41191269.03743649</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>41658359.11441565</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>42890801.77071565</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>44412464.04257372</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>43761480.80415606</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>44346617.92444637</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>43866658.44354638</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>43457396.10714637</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>43813445.89584637</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>43615973.29257812</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>43482106.18997812</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>43673379.61047813</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>43442349.47201025</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>43283812.42341024</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>43212974.08521024</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>43140945.79591024</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>44747104.97148109</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>44988013.76792305</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>44631385.72251782</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>44977580.36780833</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>45091114.78320833</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>44871144.58970834</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>44944504.35342021</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>44944504.35342021</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>45131176.9218156</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>45302542.07661559</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>46329789.14611559</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>46329789.14611559</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>46272396.24508426</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>46054191.20679409</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>45932655.92539409</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>45957339.63278365</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>45876735.88088365</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>45829293.42118365</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>46066014.91768365</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>46339902.73018463</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>46339902.73018463</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>46339902.73018463</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>46339902.73018463</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>46586413.76482776</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>46197972.28662775</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>46197972.28662775</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>46159630.50032775</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>46290958.97212775</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>45965024.84032775</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>46095844.04672775</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>46007916.98622774</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>46007916.98622774</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>46104131.80072774</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>45827045.28442774</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>45410599.46972774</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>45378709.86275104</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>45559877.93275104</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>45650288.79995104</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>45518467.02165104</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>45383183.88445104</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>45067167.87375104</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>45299597.13375103</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>45299597.13375103</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>45103373.18925104</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>45624230.82925104</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>45622767.11115104</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>45622767.11115104</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>45553029.28835104</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>45502071.98940764</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
